--- a/backtest_results/backtest_comprehensive_results.xlsx
+++ b/backtest_results/backtest_comprehensive_results.xlsx
@@ -423,36 +423,36 @@
         </is>
       </c>
       <c r="B2">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>39.5%</t>
+          <t>42.1%</t>
         </is>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>9.66</v>
+        <v>10.18</v>
       </c>
       <c r="F2">
-        <v>12.6</v>
+        <v>13.07</v>
       </c>
       <c r="G2">
-        <v>3.24</v>
+        <v>2.92</v>
       </c>
       <c r="H2">
-        <v>-1054.55</v>
+        <v>-1118.18</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-24.5%</t>
+          <t>-19.6%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -468,7 +468,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2380,6 +2380,608 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CLE at NYJ</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>17.028844076856</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>10.028844076856</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NYJ</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NYJ</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>VERY HIGH</t>
+        </is>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NE at TB</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>-7.18640554521466</v>
+      </c>
+      <c r="D46">
+        <v>-5</v>
+      </c>
+      <c r="E46">
+        <v>2.18640554521466</v>
+      </c>
+      <c r="F46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LA at SF</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>9.9686209639392</v>
+      </c>
+      <c r="D47">
+        <v>-16</v>
+      </c>
+      <c r="E47">
+        <v>25.9686209639392</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>DET at WAS</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>8.42293353178616</v>
+      </c>
+      <c r="D48">
+        <v>-22</v>
+      </c>
+      <c r="E48">
+        <v>30.42293353178616</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>JAX at HOU</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>-4.88700662322195</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>11.88700662322195</v>
+      </c>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PHI at GB</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>-5.48904317017425</v>
+      </c>
+      <c r="D50">
+        <v>-3</v>
+      </c>
+      <c r="E50">
+        <v>2.48904317017425</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ATL at IND</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>-1.97652675950492</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>7.97652675950492</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>VERY LOW</t>
+        </is>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ARI at SEA</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>9.68765978189399</v>
+      </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
+      <c r="E52">
+        <v>12.31234021810601</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>NYG at CHI</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>8.559550865403819</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>4.559550865403819</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BAL at MIN</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>0.531196087788566</v>
+      </c>
+      <c r="D54">
+        <v>-8</v>
+      </c>
+      <c r="E54">
+        <v>8.531196087788565</v>
+      </c>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>VERY LOW</t>
+        </is>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BUF at MIA</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>-1.72147129851963</v>
+      </c>
+      <c r="D55">
+        <v>17</v>
+      </c>
+      <c r="E55">
+        <v>18.72147129851963</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>VERY LOW</t>
+        </is>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PIT at LAC</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>3.62936478070861</v>
+      </c>
+      <c r="D56">
+        <v>15</v>
+      </c>
+      <c r="E56">
+        <v>11.37063521929139</v>
+      </c>
+      <c r="F56" t="b">
+        <v>1</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>NO at CAR</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>6.49857335982096</v>
+      </c>
+      <c r="D57">
+        <v>-10</v>
+      </c>
+      <c r="E57">
+        <v>16.49857335982096</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>MEDIUM</t>
+        </is>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LV at DEN</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>VERY LOW</t>
+        </is>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2387,7 +2989,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2477,6 +3079,25 @@
         <v>9.964285714285714</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENHANCED</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>11.78236769425911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
